--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C538B-8D1A-4A30-A0F9-398A5460BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676AD7D-E8E4-4B9D-AF85-E8A09CE42055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,9 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,19 +810,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,13 +1348,13 @@
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>4</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>45532</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>45537</v>
       </c>
     </row>
@@ -1368,9 +1365,9 @@
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
@@ -1456,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1494,10 +1491,10 @@
       <c r="C2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1511,10 +1508,10 @@
       <c r="C3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1528,10 +1525,10 @@
       <c r="C4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1545,10 +1542,10 @@
       <c r="C5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1562,48 +1559,48 @@
       <c r="C6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>45506</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>0.25</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="50"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22" t="s">
@@ -1615,10 +1612,10 @@
       <c r="C9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1632,10 +1629,10 @@
       <c r="C10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1649,10 +1646,10 @@
       <c r="C11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1666,69 +1663,69 @@
       <c r="C12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>45513</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>0.25</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="48"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="50"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <v>45514</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="42">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="E15" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="22" t="s">
@@ -1740,10 +1737,10 @@
       <c r="C16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1757,10 +1754,10 @@
       <c r="C17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1774,10 +1771,10 @@
       <c r="C18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1788,30 +1785,30 @@
       <c r="B19" s="21">
         <v>45520</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="39">
         <v>45521</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1825,41 +1822,41 @@
       <c r="C21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>45524</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="52"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>0.25</v>
       </c>
     </row>
@@ -1873,10 +1870,10 @@
       <c r="C24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1890,10 +1887,10 @@
       <c r="C25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1907,10 +1904,10 @@
       <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1924,10 +1921,10 @@
       <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1941,10 +1938,10 @@
       <c r="C28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1958,10 +1955,10 @@
       <c r="C29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1975,10 +1972,10 @@
       <c r="C30" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1992,10 +1989,10 @@
       <c r="C31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2009,10 +2006,10 @@
       <c r="C32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2026,10 +2023,10 @@
       <c r="C33" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2043,10 +2040,10 @@
       <c r="C34" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2060,10 +2057,10 @@
       <c r="C35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2077,10 +2074,10 @@
       <c r="C36" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2094,10 +2091,10 @@
       <c r="C37" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2111,10 +2108,10 @@
       <c r="C38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2128,10 +2125,10 @@
       <c r="C39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2145,10 +2142,10 @@
       <c r="C40" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2159,45 +2156,45 @@
       <c r="B41" s="21">
         <v>45548</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>45551</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="32">
         <v>0.25</v>
       </c>
     </row>
@@ -2211,10 +2208,10 @@
       <c r="C44" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2228,10 +2225,10 @@
       <c r="C45" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2245,10 +2242,10 @@
       <c r="C46" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2262,10 +2259,10 @@
       <c r="C47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2279,54 +2276,54 @@
       <c r="C48" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="46">
         <v>45559</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="32">
         <v>0.25</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="48"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="47"/>
+      <c r="D50" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="36">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="22" t="s">
@@ -2338,10 +2335,10 @@
       <c r="C51" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2355,10 +2352,10 @@
       <c r="C52" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="32">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2372,26 +2369,32 @@
       <c r="C53" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="34">
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="33">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2402,12 +2405,6 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676AD7D-E8E4-4B9D-AF85-E8A09CE42055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10079474-443D-486E-82C8-79FC671E9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1853,7 +1853,7 @@
       <c r="A23" s="49"/>
       <c r="B23" s="50"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="43" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="29">

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10079474-443D-486E-82C8-79FC671E9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C689133-0A90-4CC2-9AEE-E9C0116582B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -685,9 +685,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,20 +807,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,13 +1210,13 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.734375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="109.734375" style="14" customWidth="1"/>
     <col min="3" max="3" width="18.15625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.15625" style="3"/>
   </cols>
@@ -1228,13 +1228,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1242,198 +1242,198 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>12</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>45488</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>45503</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>45504</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>45505</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>45506</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>45509</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>45510</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>45513</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>11</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>45516</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>45531</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>4</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>45532</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>45537</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>10</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>45538</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>45551</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f>SUM(C2:C12)</f>
         <v>45</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1465,936 +1465,930 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>45499</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>45502</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>45503</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>45504</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>45505</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>45506</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>0.25</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>45509</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>45510</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>45511</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>45512</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>45513</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>0.25</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="47"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="35" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>45514</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="41">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="E15" s="40">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>45516</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>45517</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>45518</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>45520</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="38">
         <v>45521</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>45523</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>45524</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="43" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>45525</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>45526</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>45527</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>45530</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>45531</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>45532</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>45533</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>45534</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>45537</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>45538</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>45539</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>45540</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>45541</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>45544</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>45545</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>45546</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>45547</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>45548</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="51">
         <v>45551</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="49"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="51"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="50"/>
+      <c r="D43" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>45552</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>45553</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>45554</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>45555</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>45558</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="45">
         <v>45559</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>0.25</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="47"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="35" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>45560</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>45561</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>45562</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="26">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="33">
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="32">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2405,6 +2399,12 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C689133-0A90-4CC2-9AEE-E9C0116582B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B3452-11E2-4D46-B460-C5B81787B3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -795,35 +795,35 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,7 +1242,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="16">
@@ -1259,7 +1259,7 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="17">
@@ -1276,7 +1276,7 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="17">
@@ -1348,13 +1348,13 @@
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="44">
         <v>4</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="46">
         <v>45532</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="46">
         <v>45537</v>
       </c>
     </row>
@@ -1365,9 +1365,9 @@
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1567,13 +1567,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <v>45506</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -1588,9 +1588,9 @@
       <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="34" t="s">
         <v>121</v>
       </c>
@@ -1671,13 +1671,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="46">
         <v>45513</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="42" t="s">
@@ -1692,9 +1692,9 @@
       <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="34" t="s">
         <v>122</v>
       </c>
@@ -1830,13 +1830,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="46">
         <v>45524</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -1850,9 +1850,9 @@
       <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="42" t="s">
         <v>66</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="42" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="28">
@@ -1887,7 +1887,7 @@
       <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="42" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="28">
@@ -2167,13 +2167,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="49" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="51">
         <v>45551</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -2188,9 +2188,9 @@
       <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="50"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="51"/>
-      <c r="C43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="30" t="s">
         <v>22</v>
       </c>
@@ -2284,13 +2284,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="46">
         <v>45559</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="30" t="s">
@@ -2306,9 +2306,9 @@
       <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="46"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="46"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="34" t="s">
         <v>125</v>
       </c>
@@ -2377,18 +2377,24 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="32">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2399,12 +2405,6 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B3452-11E2-4D46-B460-C5B81787B3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E4BD2-A3D7-4083-B076-C806B4FFB9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -810,19 +810,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1567,13 +1567,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="46">
         <v>45506</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="48" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -1589,7 +1589,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="47"/>
       <c r="D8" s="34" t="s">
         <v>121</v>
@@ -1671,13 +1671,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="46">
         <v>45513</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="48" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="42" t="s">
@@ -1693,7 +1693,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="47"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="47"/>
       <c r="D14" s="34" t="s">
         <v>122</v>
@@ -1830,13 +1830,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="46">
         <v>45524</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -1850,9 +1850,9 @@
       <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="42" t="s">
         <v>66</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="C27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="42" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="28">
@@ -1955,7 +1955,7 @@
       <c r="C29" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="42" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="28">
@@ -2167,13 +2167,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="52">
         <v>45551</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -2188,9 +2188,9 @@
       <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="30" t="s">
         <v>22</v>
       </c>
@@ -2284,13 +2284,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="48" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="46">
         <v>45559</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="30" t="s">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="47"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="47"/>
       <c r="D50" s="34" t="s">
         <v>125</v>
@@ -2377,24 +2377,18 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="32">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2405,6 +2399,12 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E4BD2-A3D7-4083-B076-C806B4FFB9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60A266-5875-45FE-9496-D3027D67610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,9 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,19 +807,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,13 +1207,13 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="109.734375" style="13" customWidth="1"/>
     <col min="3" max="3" width="18.15625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.15625" style="3"/>
   </cols>
@@ -1228,13 +1225,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1242,16 +1239,16 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>12</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>45488</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>45503</v>
       </c>
     </row>
@@ -1259,16 +1256,16 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>45504</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>45505</v>
       </c>
     </row>
@@ -1276,164 +1273,164 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>45506</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>45509</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>45510</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>45513</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>11</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>45516</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>45531</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>4</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>45532</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>45537</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>45538</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>45551</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f>SUM(C2:C12)</f>
         <v>45</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1453,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1465,930 +1462,936 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>45499</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>45502</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>45503</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>45504</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>45505</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>45506</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>0.25</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="49"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>45509</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>45510</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>45511</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>45512</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>45513</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>0.25</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="49"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <v>45514</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>45516</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>45517</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>45518</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>45520</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>45521</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="39">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>45523</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>45524</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="51"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>45525</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>45526</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>45527</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>45530</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>45531</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>45532</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>45533</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>45534</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>45537</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>45538</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>45539</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>45540</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>45541</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>45544</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>45545</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>45546</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>45547</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>45548</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="50">
         <v>45551</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="30">
         <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>45552</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>45553</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>45554</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>45555</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>45558</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="45">
         <v>45559</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="30">
         <v>0.25</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="47"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="49"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="34" t="s">
+      <c r="C50" s="46"/>
+      <c r="D50" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>45560</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>45561</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>45562</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="25">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="32">
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="31">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2399,12 +2402,6 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60A266-5875-45FE-9496-D3027D67610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007CD48-9225-4794-B36B-95DBEFA9B891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -807,19 +807,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1564,13 +1564,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="45">
         <v>45506</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="46"/>
       <c r="D8" s="33" t="s">
         <v>121</v>
@@ -1668,13 +1668,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="45">
         <v>45513</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -1690,7 +1690,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="46"/>
       <c r="D14" s="33" t="s">
         <v>122</v>
@@ -1827,13 +1827,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="45">
         <v>45524</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -1847,9 +1847,9 @@
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="C33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="41" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="27">
@@ -2164,13 +2164,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="51">
         <v>45551</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -2185,9 +2185,9 @@
       <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="48"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="29" t="s">
         <v>22</v>
       </c>
@@ -2281,13 +2281,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="45">
         <v>45559</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="29" t="s">
@@ -2304,7 +2304,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="46"/>
-      <c r="B50" s="49"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="46"/>
       <c r="D50" s="33" t="s">
         <v>125</v>
@@ -2374,24 +2374,18 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="31">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2402,6 +2396,12 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007CD48-9225-4794-B36B-95DBEFA9B891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36944F21-9773-48A8-9CCB-7246EF5B4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36944F21-9773-48A8-9CCB-7246EF5B4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38BF5B-C689-45B2-AA04-78ECF1498680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -807,19 +807,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1564,13 +1564,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="45">
         <v>45506</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="46"/>
       <c r="D8" s="33" t="s">
         <v>121</v>
@@ -1668,13 +1668,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="45">
         <v>45513</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -1690,7 +1690,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="46"/>
       <c r="D14" s="33" t="s">
         <v>122</v>
@@ -1827,13 +1827,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="48" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="45">
         <v>45524</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -1847,9 +1847,9 @@
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2164,13 +2164,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="50">
         <v>45551</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -2185,9 +2185,9 @@
       <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="29" t="s">
         <v>22</v>
       </c>
@@ -2281,13 +2281,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="51" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="45">
         <v>45559</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="29" t="s">
@@ -2304,7 +2304,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="46"/>
-      <c r="B50" s="48"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="46"/>
       <c r="D50" s="33" t="s">
         <v>125</v>
@@ -2374,18 +2374,24 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="31">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2396,12 +2402,6 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38BF5B-C689-45B2-AA04-78ECF1498680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA201ACD-2849-40D3-A599-32590D1DDF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
   <si>
     <t>Topics</t>
   </si>
@@ -418,13 +418,16 @@
   </si>
   <si>
     <t>Day -19</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +474,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,10 +691,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,9 +777,6 @@
     </xf>
     <xf numFmtId="21" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -807,23 +828,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1239,7 +1274,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="15">
@@ -1256,7 +1291,7 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="16">
@@ -1273,7 +1308,7 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="16">
@@ -1299,7 +1334,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="16">
@@ -1345,13 +1380,13 @@
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>4</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>45532</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>45537</v>
       </c>
     </row>
@@ -1362,9 +1397,9 @@
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
@@ -1448,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1488,7 +1523,7 @@
       <c r="C2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="23">
@@ -1505,7 +1540,7 @@
       <c r="C3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="23">
@@ -1522,7 +1557,7 @@
       <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="23">
@@ -1539,7 +1574,7 @@
       <c r="C5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="23">
@@ -1556,7 +1591,7 @@
       <c r="C6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="23">
@@ -1564,40 +1599,40 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>45506</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="23">
         <v>0.25</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="33" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
@@ -1609,7 +1644,7 @@
       <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="23">
@@ -1626,7 +1661,7 @@
       <c r="C10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="23">
@@ -1643,7 +1678,7 @@
       <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="23">
@@ -1660,7 +1695,7 @@
       <c r="C12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="23">
@@ -1668,61 +1703,61 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>45513</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="23">
         <v>0.25</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="33" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>45514</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="39">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="E15" s="38">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
@@ -1734,14 +1769,14 @@
       <c r="C16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
@@ -1751,14 +1786,14 @@
       <c r="C17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
         <v>58</v>
       </c>
@@ -1768,48 +1803,48 @@
       <c r="C18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="19">
         <v>45520</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>45521</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="39">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="38">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>64</v>
       </c>
@@ -1819,21 +1854,21 @@
       <c r="C21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="44">
         <v>45524</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -1842,22 +1877,22 @@
       <c r="E22" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="41" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20" t="s">
         <v>67</v>
       </c>
@@ -1867,14 +1902,27 @@
       <c r="C24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="40" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="27">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="54"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53">
+        <v>45664</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="51"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20" t="s">
         <v>69</v>
       </c>
@@ -1884,14 +1932,29 @@
       <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="27">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="54"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53">
+        <v>45864</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20" t="s">
         <v>71</v>
       </c>
@@ -1901,14 +1964,29 @@
       <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="27">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="54"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53">
+        <v>45731</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N26" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20" t="s">
         <v>72</v>
       </c>
@@ -1918,14 +1996,29 @@
       <c r="C27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="27">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="54"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53">
+        <v>45858</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20" t="s">
         <v>73</v>
       </c>
@@ -1935,14 +2028,27 @@
       <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="27">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="54"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53">
+        <v>45745</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="51"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20" t="s">
         <v>74</v>
       </c>
@@ -1952,14 +2058,14 @@
       <c r="C29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20" t="s">
         <v>75</v>
       </c>
@@ -1969,14 +2075,14 @@
       <c r="C30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20" t="s">
         <v>76</v>
       </c>
@@ -1993,7 +2099,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20" t="s">
         <v>77</v>
       </c>
@@ -2003,7 +2109,7 @@
       <c r="C32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="55" t="s">
         <v>108</v>
       </c>
       <c r="E32" s="27">
@@ -2020,7 +2126,7 @@
       <c r="C33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="27">
@@ -2037,7 +2143,7 @@
       <c r="C34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="40" t="s">
         <v>105</v>
       </c>
       <c r="E34" s="27">
@@ -2153,7 +2259,7 @@
       <c r="B41" s="19">
         <v>45548</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -2164,13 +2270,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="50">
         <v>45551</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -2179,19 +2285,19 @@
       <c r="E42" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="49"/>
+      <c r="D43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="29">
         <v>0.25</v>
       </c>
     </row>
@@ -2205,10 +2311,10 @@
       <c r="C44" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2222,10 +2328,10 @@
       <c r="C45" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2239,10 +2345,10 @@
       <c r="C46" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2256,10 +2362,10 @@
       <c r="C47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2273,54 +2379,54 @@
       <c r="C48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="44">
         <v>45559</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <v>0.25</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="46"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="33" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="20" t="s">
@@ -2332,10 +2438,10 @@
       <c r="C51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2349,10 +2455,10 @@
       <c r="C52" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2374,24 +2480,18 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="31">
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="30">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2402,6 +2502,12 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA201ACD-2849-40D3-A599-32590D1DDF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8FD648-AD13-47F0-9A09-E3F3F043E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -348,18 +348,6 @@
     <t>PropTypes, Component Life Cycle, CSS Styling, Bootstrap in React</t>
   </si>
   <si>
-    <t>Lazy Loading, Code Splitting, Pure Components, Error Boundary, Portals, React Context API</t>
-  </si>
-  <si>
-    <t>Progressive Web App with React, React Hooks, State management - Redux, ngrx &amp; ngrx-effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React Router, Routing Transition Concepts, Higher Order Components, Render Props </t>
-  </si>
-  <si>
-    <t>Form handling using Formik, Yup, Flux Pattern - Action, Dispatcher and Stores</t>
-  </si>
-  <si>
     <t>Event Handling, React State, Controlled Components and Uncontrolled Components using Refs</t>
   </si>
   <si>
@@ -421,13 +409,120 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lazy Loading, Code Splitting, Pure Components, Error Boundary, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Portals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, React Context API</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Form handling using Formik, Yup,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Flux Pattern - Action, Dispatcher and Stores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Progressive Web App with React,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React Hooks, State management - Redux, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ngrx &amp; ngrx-effects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React Router, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Routing Transition Concept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s, Higher Order Components, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Render Props</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +582,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -816,33 +917,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -855,6 +929,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1380,13 +1481,13 @@
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="47">
         <v>4</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="49">
         <v>45532</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="49">
         <v>45537</v>
       </c>
     </row>
@@ -1397,9 +1498,9 @@
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
@@ -1485,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1599,13 +1700,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="49">
         <v>45506</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -1620,11 +1721,11 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E8" s="33">
         <v>8.3333333333333329E-2</v>
@@ -1703,13 +1804,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="49">
         <v>45513</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="40" t="s">
@@ -1724,11 +1825,11 @@
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E14" s="33">
         <v>8.3333333333333329E-2</v>
@@ -1746,10 +1847,10 @@
         <v>45514</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E15" s="38">
         <v>0.33333333333333331</v>
@@ -1835,10 +1936,10 @@
         <v>45521</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E20" s="38">
         <v>0.33333333333333331</v>
@@ -1862,17 +1963,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="44">
+      <c r="A22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="49">
         <v>45524</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E22" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1882,9 +1983,9 @@
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="49"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="40" t="s">
         <v>66</v>
       </c>
@@ -1908,19 +2009,19 @@
       <c r="E24" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53">
+      <c r="F24" s="45"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44">
         <v>45664</v>
       </c>
-      <c r="M24" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="51"/>
+      <c r="M24" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20" t="s">
@@ -1938,20 +2039,20 @@
       <c r="E25" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53">
+      <c r="F25" s="45"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44">
         <v>45864</v>
       </c>
-      <c r="M25" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="52" t="s">
-        <v>127</v>
+      <c r="M25" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1970,20 +2071,20 @@
       <c r="E26" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53">
+      <c r="F26" s="45"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44">
         <v>45731</v>
       </c>
-      <c r="M26" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="N26" s="52" t="s">
-        <v>127</v>
+      <c r="M26" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -2002,20 +2103,20 @@
       <c r="E27" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53">
+      <c r="F27" s="45"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44">
         <v>45858</v>
       </c>
-      <c r="M27" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="N27" s="52" t="s">
-        <v>127</v>
+      <c r="M27" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -2034,19 +2135,19 @@
       <c r="E28" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53">
+      <c r="F28" s="45"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44">
         <v>45745</v>
       </c>
-      <c r="M28" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="N28" s="51"/>
+      <c r="M28" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="42"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20" t="s">
@@ -2059,7 +2160,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E29" s="27">
         <v>0.33333333333333331</v>
@@ -2076,7 +2177,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E30" s="27">
         <v>0.33333333333333331</v>
@@ -2109,8 +2210,8 @@
       <c r="C32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>108</v>
+      <c r="D32" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="E32" s="27">
         <v>0.33333333333333331</v>
@@ -2127,7 +2228,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" s="27">
         <v>0.33333333333333331</v>
@@ -2144,7 +2245,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E34" s="27">
         <v>0.33333333333333331</v>
@@ -2161,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E35" s="27">
         <v>0.33333333333333331</v>
@@ -2178,7 +2279,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E36" s="27">
         <v>0.33333333333333331</v>
@@ -2195,7 +2296,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E37" s="27">
         <v>0.33333333333333331</v>
@@ -2212,7 +2313,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E38" s="27">
         <v>0.33333333333333331</v>
@@ -2229,7 +2330,7 @@
         <v>36</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E39" s="27">
         <v>0.33333333333333331</v>
@@ -2246,7 +2347,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E40" s="27">
         <v>0.33333333333333331</v>
@@ -2263,24 +2364,24 @@
         <v>41</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E41" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="54">
         <v>45551</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E42" s="25">
         <v>8.3333333333333329E-2</v>
@@ -2291,9 +2392,9 @@
       <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="28" t="s">
         <v>22</v>
       </c>
@@ -2387,13 +2488,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="49">
         <v>45559</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="28" t="s">
@@ -2409,20 +2510,20 @@
       <c r="J49" s="31"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="45"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="45"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E50" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
@@ -2447,7 +2548,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B52" s="19">
         <v>45561</v>
@@ -2464,7 +2565,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B53" s="19">
         <v>45562</v>
@@ -2480,18 +2581,24 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="30">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2502,12 +2609,6 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8FD648-AD13-47F0-9A09-E3F3F043E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88026D3-D6D2-4359-8F33-FADD5379054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>Introduction to RESTful APIs, Setting Up React Application, Making HTTP Requests.</t>
-  </si>
-  <si>
-    <t>Introduction to JWT, Generating and Issuing JWT Tokens, Token Verification and Decoding</t>
   </si>
   <si>
     <t>Securing APIs with JWT Authentication, Authorizing Access with JWT</t>
@@ -515,6 +512,20 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Introduction to JWT, Generating and Issuing JWT Tokens, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Token Verification and Decoding</t>
     </r>
   </si>
 </sst>
@@ -942,19 +953,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1353,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1586,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1700,13 +1711,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="49">
         <v>45506</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -1722,10 +1733,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="50"/>
       <c r="D8" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="33">
         <v>8.3333333333333329E-2</v>
@@ -1804,13 +1815,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="49">
         <v>45513</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="40" t="s">
@@ -1826,10 +1837,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="50"/>
       <c r="D14" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="33">
         <v>8.3333333333333329E-2</v>
@@ -1847,10 +1858,10 @@
         <v>45514</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="38">
         <v>0.33333333333333331</v>
@@ -1936,10 +1947,10 @@
         <v>45521</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="38">
         <v>0.33333333333333331</v>
@@ -1963,17 +1974,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="52" t="s">
-        <v>122</v>
+      <c r="A22" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="B22" s="49">
         <v>45524</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="54" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1983,9 +1994,9 @@
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="40" t="s">
         <v>66</v>
       </c>
@@ -2019,7 +2030,7 @@
         <v>45664</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N24" s="42"/>
     </row>
@@ -2049,10 +2060,10 @@
         <v>45864</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N25" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -2081,10 +2092,10 @@
         <v>45731</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -2113,10 +2124,10 @@
         <v>45858</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -2145,7 +2156,7 @@
         <v>45745</v>
       </c>
       <c r="M28" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" s="42"/>
     </row>
@@ -2160,7 +2171,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="27">
         <v>0.33333333333333331</v>
@@ -2193,7 +2204,7 @@
       <c r="C31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="40" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="27">
@@ -2245,7 +2256,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="27">
         <v>0.33333333333333331</v>
@@ -2262,7 +2273,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="27">
         <v>0.33333333333333331</v>
@@ -2279,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="27">
         <v>0.33333333333333331</v>
@@ -2296,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="27">
         <v>0.33333333333333331</v>
@@ -2312,7 +2323,7 @@
       <c r="C38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="40" t="s">
         <v>107</v>
       </c>
       <c r="E38" s="27">
@@ -2346,8 +2357,8 @@
       <c r="C40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>108</v>
+      <c r="D40" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E40" s="27">
         <v>0.33333333333333331</v>
@@ -2363,25 +2374,25 @@
       <c r="C41" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>109</v>
+      <c r="D41" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="E41" s="27">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="54">
+      <c r="B42" s="55">
         <v>45551</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="25">
         <v>8.3333333333333329E-2</v>
@@ -2392,9 +2403,9 @@
       <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="52"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="52"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="28" t="s">
         <v>22</v>
       </c>
@@ -2488,13 +2499,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="51" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="49">
         <v>45559</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="28" t="s">
@@ -2511,19 +2522,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="50"/>
-      <c r="B50" s="53"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="50"/>
       <c r="D50" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F50" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>116</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
@@ -2548,7 +2559,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="19">
         <v>45561</v>
@@ -2565,7 +2576,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="19">
         <v>45562</v>
@@ -2581,24 +2592,18 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="30">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2609,6 +2614,12 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Net Full Stack React_Plan.xlsx
+++ b/Net Full Stack React_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88026D3-D6D2-4359-8F33-FADD5379054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58475D55-DC71-447B-B902-4F8CC4D427EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{07EE2141-D745-482C-8A92-03C7DE36CEBB}"/>
   </bookViews>
@@ -442,35 +442,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Flux Pattern - Action, Dispatcher and Stores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Progressive Web App with React,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> React Hooks, State management - Redux, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ngrx &amp; ngrx-effects.</t>
     </r>
   </si>
   <si>
@@ -528,12 +499,40 @@
       <t>Token Verification and Decoding</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Progressive Web App with React,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React Hooks, State management - Redux, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ngrx &amp; ngrx-effects.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +596,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -953,19 +957,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E127E-1DD1-419E-8E7D-1158858A2A87}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1711,13 +1715,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="49">
         <v>45506</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -1733,7 +1737,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="50"/>
       <c r="D8" s="32" t="s">
         <v>116</v>
@@ -1815,13 +1819,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="55" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="49">
         <v>45513</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="40" t="s">
@@ -1837,7 +1841,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="50"/>
       <c r="D14" s="32" t="s">
         <v>117</v>
@@ -1974,13 +1978,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="52" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="49">
         <v>45524</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -1994,9 +1998,9 @@
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="54"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="40" t="s">
         <v>66</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="27">
         <v>0.33333333333333331</v>
@@ -2306,8 +2310,8 @@
       <c r="C37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>125</v>
+      <c r="D37" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E37" s="27">
         <v>0.33333333333333331</v>
@@ -2358,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="27">
         <v>0.33333333333333331</v>
@@ -2382,13 +2386,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="54">
         <v>45551</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -2403,9 +2407,9 @@
       <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="28" t="s">
         <v>22</v>
       </c>
@@ -2499,13 +2503,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="49">
         <v>45559</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="28" t="s">
@@ -2522,7 +2526,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="50"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="50"/>
       <c r="D50" s="32" t="s">
         <v>120</v>
@@ -2592,18 +2596,24 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="30">
         <v>15.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
@@ -2614,15 +2624,10 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal - General Use</oddFooter>
   </headerFooter>
